--- a/仕様書（途中）/設定用ファイル.xlsx
+++ b/仕様書（途中）/設定用ファイル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -277,6 +277,14 @@
   </si>
   <si>
     <t>OverDialogue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MagicNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TrickNo.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -627,7 +635,7 @@
     <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -673,8 +681,14 @@
       <c r="O1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -719,6 +733,12 @@
       </c>
       <c r="O2">
         <v>20</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1413,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/仕様書（途中）/設定用ファイル.xlsx
+++ b/仕様書（途中）/設定用ファイル.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy" sheetId="1" r:id="rId1"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>にぼうけんしましょう.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>@</t>
   </si>
   <si>
@@ -192,15 +188,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いいてんきですね.いっしょ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>てすとOK.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>やってみよう.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -246,15 +234,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>つかれった.</t>
-  </si>
-  <si>
     <t>きょうはにぎやかですね.</t>
   </si>
   <si>
-    <t>やられった.</t>
-  </si>
-  <si>
     <t>NPC1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -285,6 +267,26 @@
   </si>
   <si>
     <t>TrickNo.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やられた.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかれた.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いってみよう.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいてんきですね.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いっしょにぼうけんしましょう.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -682,10 +684,10 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -1296,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1312,25 +1314,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1338,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" t="s">
-        <v>44</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -1361,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1378,16 +1380,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
         <v>43</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1395,10 +1397,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1406,10 +1408,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1417,15 +1419,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1448,15 +1451,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1478,7 +1481,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1500,7 +1503,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>5</v>
